--- a/APPLE PAY/CheckElegibility/ExcelReportFile/ReporteFlujoNaranja.xlsx
+++ b/APPLE PAY/CheckElegibility/ExcelReportFile/ReporteFlujoNaranja.xlsx
@@ -207,11 +207,11 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.6"/>
@@ -308,7 +308,7 @@
         <v>17</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>45517.0493055556</v>
+        <v>45390.0493055556</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
